--- a/myapp/files/9_MethodComparePercent/Scenario 364.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 364.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2352</v>
+        <v>10857</v>
       </c>
       <c r="F2" t="n">
-        <v>2.48567986303397</v>
+        <v>2.00338787892208</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.04081632653061</v>
+        <v>1.68067226890756</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>192</v>
+        <v>6378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.202912641880324</v>
+        <v>1.17690042293129</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.04081632653061</v>
+        <v>1.26050420168067</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1152</v>
+        <v>12613</v>
       </c>
       <c r="F4" t="n">
-        <v>1.21747585128194</v>
+        <v>2.32741377146948</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.04081632653061</v>
+        <v>1.26050420168067</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>940</v>
+        <v>13993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.993426475872419</v>
+        <v>2.58205826561266</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.08163265306122</v>
+        <v>2.52100840336134</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2356</v>
+        <v>14470</v>
       </c>
       <c r="F6" t="n">
-        <v>2.48990720973981</v>
+        <v>2.67007668858824</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.04081632653061</v>
+        <v>2.10084033613445</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11151</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.05763822767432</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.26050420168067</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3584</v>
+        <v>11263</v>
       </c>
       <c r="F8" t="n">
-        <v>3.78770264843271</v>
+        <v>2.07830502719898</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.04081632653061</v>
+        <v>2.10084033613445</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3696</v>
+        <v>18926</v>
       </c>
       <c r="F9" t="n">
-        <v>3.90606835619623</v>
+        <v>3.49232006967664</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04081632653061</v>
+        <v>2.10084033613445</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.63934426229508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>21308</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.93185860956725</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17907</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.30428909900135</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.36134453781513</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10611</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.95799472996612</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12961</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.39162846999255</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>16152</v>
+        <v>47909</v>
       </c>
       <c r="F14" t="n">
-        <v>17.0700259981822</v>
+        <v>8.84040802167062</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>10.2040816326531</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>11236</v>
+        <v>55167</v>
       </c>
       <c r="F15" t="n">
-        <v>11.8746168967048</v>
+        <v>10.1796904408671</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.91803278688525</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>14.2857142857143</v>
+        <v>9.66386554621849</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>3888</v>
+        <v>44733</v>
       </c>
       <c r="F16" t="n">
-        <v>4.10898099807656</v>
+        <v>8.2543566351498</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.91803278688525</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>6.12244897959184</v>
+        <v>7.56302521008403</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10614</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.95854830495339</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.26050420168067</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1485</v>
+        <v>14344</v>
       </c>
       <c r="F18" t="n">
-        <v>1.56940246454313</v>
+        <v>2.64682653912299</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>2.04081632653061</v>
+        <v>3.36134453781513</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>7149</v>
+        <v>24921</v>
       </c>
       <c r="F19" t="n">
-        <v>7.55532540001268</v>
+        <v>4.59854741923341</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>6.12244897959184</v>
+        <v>6.30252100840336</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>11268</v>
+        <v>54981</v>
       </c>
       <c r="F20" t="n">
-        <v>11.9084356703515</v>
+        <v>10.1453687916565</v>
       </c>
       <c r="G20" t="n">
         <v>23</v>
@@ -1277,10 +1277,10 @@
         <v>37.7049180327869</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>10.2040816326531</v>
+        <v>11.3445378151261</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>6160</v>
+        <v>46898</v>
       </c>
       <c r="F21" t="n">
-        <v>6.51011392699372</v>
+        <v>8.65385325096138</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>8.16326530612245</v>
+        <v>9.2436974789916</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1392</v>
+        <v>5903</v>
       </c>
       <c r="F22" t="n">
-        <v>1.47111665363235</v>
+        <v>1.08925104994723</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.04081632653061</v>
+        <v>1.68067226890756</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5561</v>
+        <v>10986</v>
       </c>
       <c r="F23" t="n">
-        <v>5.87706875779417</v>
+        <v>2.02719160337459</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.08163265306122</v>
+        <v>2.52100840336134</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5558</v>
+        <v>13716</v>
       </c>
       <c r="F24" t="n">
-        <v>5.87389824776479</v>
+        <v>2.53094484178827</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>6.12244897959184</v>
+        <v>4.20168067226891</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>4823</v>
+        <v>23070</v>
       </c>
       <c r="F25" t="n">
-        <v>5.09712329056668</v>
+        <v>4.25699165208919</v>
       </c>
       <c r="G25" t="n">
         <v>10</v>
@@ -1467,10 +1467,10 @@
         <v>16.3934426229508</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>6.12244897959184</v>
+        <v>6.30252100840336</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>5678</v>
+        <v>26252</v>
       </c>
       <c r="F26" t="n">
-        <v>6.00071864893999</v>
+        <v>4.84415018858455</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1505,16 +1505,16 @@
         <v>9.83606557377049</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
-        <v>8.16326530612245</v>
+        <v>6.30252100840336</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>11.4754098360656</v>
+        <v>9.83606557377049</v>
       </c>
     </row>
   </sheetData>
